--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718329.0182796121</v>
+        <v>716116.9038311881</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621779</v>
+        <v>5301029.811029739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.75695111</v>
+        <v>3772361.273823851</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7431649.405732136</v>
+        <v>8489606.619967759</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>393.9470907639073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>19.8984304622902</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>176.1262882516938</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>6.338580986754886</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.4664749095864</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1062,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>266.2723283900668</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1136,16 +1138,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.6909096174084334</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>56.92670819126146</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>180.607793005909</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1382,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1619,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>314.0989378010531</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1846,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.2424929031723</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>65.27530644466599</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>168.5768432315863</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>292.2732044987391</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>334.3658782825033</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.4216953850578</v>
+        <v>29.06736062834895</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>22.92681701721022</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2479,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>71.02273025732299</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>36.7630788767104</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2728,10 +2730,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>147.8413083466212</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>12.68843489334793</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2803,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2843,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>56.12882701083635</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>17.62297837539295</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3044,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3202,7 +3204,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>10.67714500126746</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.07643038288654</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>291.3512556275626</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3439,10 +3441,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>14.36834313439011</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3509,13 +3511,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -3563,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>347.6353852893851</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>80.13187460755614</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>346.3533159897248</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>166.6895325984412</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3907,10 +3909,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3979,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>36.35365247106368</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -3995,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>31.9901801406256</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884545</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,13 +4194,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>132.3542293754692</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2088.254281480102</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C2" t="n">
-        <v>1690.327927173125</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
         <v>41.76508562960205</v>
@@ -4328,28 +4330,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
         <v>133.2608899736458</v>
@@ -4410,16 +4412,16 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1025.008892784821</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M3" t="n">
+        <v>1025.008892784822</v>
+      </c>
+      <c r="N3" t="n">
         <v>1541.851827451147</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2058.694762117472</v>
       </c>
       <c r="O3" t="n">
         <v>2058.694762117472</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>325.3615225997325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1581.602319078657</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.477728391927</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D5" t="n">
-        <v>767.0137984849873</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4568,22 +4570,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>176.0078249962696</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N5" t="n">
-        <v>692.8507596625949</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4595,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y5" t="n">
-        <v>1991.823498743146</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4647,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>508.1659581184962</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>2048.100145893876</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4759,16 +4761,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1302.202034381698</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1023.132369890572</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>784.7885077502552</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.0528091390199</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.693821706375</v>
+        <v>1740.939116293115</v>
       </c>
       <c r="C8" t="n">
-        <v>860.5692310196448</v>
+        <v>1330.814525606385</v>
       </c>
       <c r="D8" t="n">
-        <v>456.1053011127053</v>
+        <v>1330.116637103953</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>915.7764216208492</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>494.7460095745367</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351232</v>
       </c>
       <c r="K8" t="n">
-        <v>216.5644706858345</v>
+        <v>878.3626980441627</v>
       </c>
       <c r="L8" t="n">
-        <v>733.4074053521598</v>
+        <v>1590.954097856401</v>
       </c>
       <c r="M8" t="n">
-        <v>1250.250340018485</v>
+        <v>2367.272688848155</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>2766.38106654733</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>3410.011922964435</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>3939.168620883587</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678879</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162544</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>3943.398714109403</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>3686.338222368913</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>3336.500667705394</v>
       </c>
       <c r="W8" t="n">
-        <v>1680.915001370864</v>
+        <v>2952.740366840562</v>
       </c>
       <c r="X8" t="n">
-        <v>1680.915001370864</v>
+        <v>2552.096969009515</v>
       </c>
       <c r="Y8" t="n">
-        <v>1680.915001370864</v>
+        <v>2151.160295957605</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471287</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>541.8239817326676</v>
       </c>
       <c r="L9" t="n">
-        <v>537.7254774811262</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147451</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725794</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948174</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.549702874878</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.8137593153713</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709622</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036096</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1530.143903763619</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>821.4052491663554</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>547.5195041058773</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>268.4498396147517</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>86.01772546736888</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1695.988587952916</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.863997266186</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>537.7254774811266</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1054.568412147452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1571.411346813777</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959273</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.568412147451</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N12" t="n">
-        <v>1571.411346813777</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1285.863997266186</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.863997266186</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>1952.973206274203</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>1952.973206274203</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>1603.135651610684</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>1285.863997266186</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>1285.863997266186</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>1285.863997266186</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960205</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959273</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962253</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>456.1053011127053</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>456.1053011127053</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>456.1053011127053</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960205</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>1592.293889628578</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>1873.867925012251</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>1616.807433271762</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>1266.969878608242</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>1266.969878608242</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>866.3264807771948</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>866.3264807771948</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>537.7254774811262</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M18" t="n">
-        <v>1054.568412147451</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N18" t="n">
-        <v>1571.411346813777</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O18" t="n">
-        <v>2088.254281480102</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.6507901634313</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="C19" t="n">
-        <v>534.5574177251478</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="D19" t="n">
-        <v>534.5574177251478</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="E19" t="n">
-        <v>373.6466025934674</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
-        <v>209.0154767040586</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1288.365834796576</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V19" t="n">
-        <v>1288.365834796576</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W19" t="n">
-        <v>1118.086195168711</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X19" t="n">
-        <v>1118.086195168711</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.3504965574757</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="20">
@@ -5777,22 +5779,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3297.155881037042</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
         <v>2959.412569640574</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>2615.69568868064</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>3458.672769375206</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N21" t="n">
-        <v>4332.330861486824</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4222.119838211426</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C22" t="n">
-        <v>4051.026465773143</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D22" t="n">
-        <v>3891.531821096053</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>3730.621005964372</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>3565.989880074963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
         <v>3132.785987910289</v>
@@ -5932,28 +5934,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>4576.912166206539</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T22" t="n">
-        <v>4576.912166206539</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U22" t="n">
-        <v>4576.912166206539</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V22" t="n">
-        <v>4576.912166206539</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="W22" t="n">
-        <v>4576.912166206539</v>
+        <v>3400.490820382272</v>
       </c>
       <c r="X22" t="n">
-        <v>4576.912166206539</v>
+        <v>3162.146958241955</v>
       </c>
       <c r="Y22" t="n">
-        <v>4409.819544605471</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6026,13 +6028,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>916.2303367455215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1789.888428857139</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>376.8401346607533</v>
+        <v>3963.271952669106</v>
       </c>
       <c r="C25" t="n">
-        <v>376.8401346607533</v>
+        <v>3963.271952669106</v>
       </c>
       <c r="D25" t="n">
-        <v>376.8401346607533</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E25" t="n">
-        <v>376.8401346607533</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>376.8401346607533</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>209.5897435862967</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="V25" t="n">
-        <v>826.4099627738212</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="W25" t="n">
-        <v>826.4099627738212</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="X25" t="n">
-        <v>789.275539666033</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="Y25" t="n">
-        <v>564.5398410547976</v>
+        <v>4150.971659063151</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6217,7 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6315,16 +6317,16 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.6240469015422</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C28" t="n">
-        <v>745.5306744632587</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D28" t="n">
-        <v>586.0360297861687</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E28" t="n">
-        <v>425.1252146544881</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F28" t="n">
-        <v>260.4940887650794</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1473.307939415896</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U28" t="n">
-        <v>1190.50979196202</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="V28" t="n">
-        <v>916.6240469015422</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="W28" t="n">
-        <v>916.6240469015422</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="X28" t="n">
-        <v>916.6240469015422</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.6240469015422</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>395.2836470293269</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.371818948615</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.371818948615</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.371818948615</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O30" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4107.722250632573</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
         <v>3132.785987910289</v>
@@ -6649,22 +6651,22 @@
         <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>4390.520398086449</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U31" t="n">
-        <v>4107.722250632573</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V31" t="n">
-        <v>4107.722250632573</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W31" t="n">
-        <v>4107.722250632573</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X31" t="n">
-        <v>4107.722250632573</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="Y31" t="n">
-        <v>4107.722250632573</v>
+        <v>3297.417113799698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6788,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.231502096085</v>
+        <v>927.4090418523174</v>
       </c>
       <c r="C34" t="n">
-        <v>895.138129657802</v>
+        <v>756.3156694140339</v>
       </c>
       <c r="D34" t="n">
-        <v>735.6434849807119</v>
+        <v>596.8210247369439</v>
       </c>
       <c r="E34" t="n">
-        <v>574.7326698490315</v>
+        <v>435.9102096052633</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1015439596227</v>
+        <v>271.2790837158546</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>104.028692641398</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>1350.978107866783</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V34" t="n">
-        <v>1350.978107866783</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W34" t="n">
-        <v>1350.978107866783</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.978107866783</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="Y34" t="n">
-        <v>1253.93120849013</v>
+        <v>1115.108748246362</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,16 +6964,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4405.12439279065</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>4055.286838127131</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
         <v>3760.992640523532</v>
@@ -7017,22 +7019,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1789.888428857139</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.888428857139</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>931.1375248150675</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>760.044152376784</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>600.549507699694</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>439.6386925680135</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>275.0075666786047</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>107.7571756041482</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7132,13 +7134,13 @@
         <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.012952997039</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>1118.837231209112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
         <v>490.5039577458317</v>
@@ -7172,7 +7174,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674165</v>
@@ -7211,13 +7213,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L39" t="n">
-        <v>704.368908940975</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M39" t="n">
-        <v>704.368908940975</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.027001052593</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>932.9308183587659</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X40" t="n">
-        <v>275.6758118380055</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>1104.024190797049</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2494.579294402201</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2084.454703715471</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7439,22 +7441,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>4090.140845814479</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3706.380544949648</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3305.7371471186</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2904.80047406669</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7500,13 +7502,13 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>913.9039397142094</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C43" t="n">
-        <v>745.5306744632587</v>
+        <v>521.7002902364676</v>
       </c>
       <c r="D43" t="n">
-        <v>586.0360297861687</v>
+        <v>362.2056455593776</v>
       </c>
       <c r="E43" t="n">
-        <v>425.1252146544881</v>
+        <v>201.2948304276971</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
         <v>93.2436976906228</v>
@@ -7594,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>913.9039397142094</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>913.9039397142094</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>913.9039397142094</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X43" t="n">
-        <v>913.9039397142094</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y43" t="n">
-        <v>913.9039397142094</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>798.1227281909344</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>798.1227281909344</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>798.1227281909344</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>798.1227281909344</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>761.4018671090519</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>352.673583001884</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>41.76508562960205</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>558.6080202959273</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1075.450954962253</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>1209.69369432892</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>1726.536628995245</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T44" t="n">
-        <v>1866.047797426961</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="U44" t="n">
-        <v>1608.987305686471</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>1608.987305686471</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>1608.987305686471</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>1208.343907855424</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>1208.343907855424</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="K45" t="n">
-        <v>690.384199457534</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>690.384199457534</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>690.384199457534</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1207.227134123859</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1221.566882129793</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>1738.409816796118</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1526093285881</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="C46" t="n">
-        <v>777.1526093285881</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1526093285881</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E46" t="n">
-        <v>639.6001036836846</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F46" t="n">
-        <v>474.9689777942758</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G46" t="n">
-        <v>307.7185867198193</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>777.1526093285881</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.1526093285881</v>
+        <v>413.6491574993933</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
@@ -7991,16 +7993,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P2" t="n">
-        <v>535.5249675786654</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8060,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>394.1192645454828</v>
+        <v>332.4660540393959</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
@@ -8070,7 +8072,7 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8216,13 +8218,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>224.7351163062146</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>553.2940084590249</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
@@ -8231,10 +8233,10 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8295,13 +8297,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>527.2265162238734</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
@@ -8310,13 +8312,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>94.8193679181835</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>265.701425083553</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>496.0520662103319</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,22 +8534,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>557.0846165901664</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>429.3564034215992</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>596.4554908421626</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>558.5343765177347</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>610.0079012849245</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051008</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>555.229727782121</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>553.6531472828635</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9240,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>694.2906522245107</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629454</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9714,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
@@ -9723,19 +9725,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>694.1034569629281</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9963,10 +9965,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>361.079260496652</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -9975,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10193,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>360.9166407024983</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>491.4496229341746</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10206,13 +10208,13 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10434,13 +10436,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10665,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>638.7997600421636</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>706.040592805458</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10905,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>673.412716993023</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11060,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11148,16 +11150,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>348.1042600436691</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>228.7885022587807</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11379,25 +11381,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>72.23607294538775</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728293</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.07625401595521</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22598,7 +22600,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>200.0859887503196</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22610,10 +22612,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>100.1526795945206</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22799,7 +22801,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22835,7 +22837,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>213.6458382258549</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -22850,7 +22852,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>301.4608314118044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22999,13 +23001,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>4.874559219806486</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23024,16 +23026,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>399.7283809904616</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>322.9959896649216</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>55.35263051300447</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>65.82376005513004</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>7.741926309437417</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>94.02640053569773</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>107.702124614628</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>54.06597461814499</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>62.56142803888747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.06664624006515</v>
+        <v>193.420980996774</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>86.87696797299608</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>199.1973446422031</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>89.31194328644375</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -24667,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>209.799906731775</v>
       </c>
     </row>
     <row r="29">
@@ -24689,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>113.2536117030643</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>218.3374451435205</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>137.4342356413304</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25141,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.4119112422364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>88.57144222862053</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.7430375082078</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25397,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>32.28731256679799</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>77.76782362276293</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.88054861921404</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>54.06597461814522</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.692906115459493</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>56.01419322081109</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25834,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>380.4664554547856</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>222.4997066824594</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190918</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>103.6061941434442</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>514131.073710265</v>
+        <v>514131.0737102649</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>514131.0737102649</v>
+        <v>745075.1905229986</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>514131.0737102651</v>
+        <v>782785.8396352469</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514131.073710265</v>
+        <v>782785.8396352469</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514131.0737102649</v>
+        <v>782785.8396352471</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782785.8396352471</v>
+        <v>782785.8396352469</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782785.8396352468</v>
+        <v>782785.8396352469</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782785.8396352468</v>
+        <v>782785.839635247</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782785.8396352468</v>
+        <v>782785.839635247</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782785.839635247</v>
+        <v>782785.8396352469</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782785.8396352468</v>
+        <v>782785.839635247</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514131.073710265</v>
+        <v>782785.8396352471</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>180746.0634767999</v>
       </c>
       <c r="D2" t="n">
-        <v>180746.0634768</v>
+        <v>261912.6225448219</v>
       </c>
       <c r="E2" t="n">
-        <v>180746.0634767999</v>
+        <v>275166.2341583391</v>
       </c>
       <c r="F2" t="n">
-        <v>180746.0634767999</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="G2" t="n">
-        <v>180746.0634768</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="H2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.2341583391</v>
       </c>
       <c r="I2" t="n">
-        <v>275166.2341583391</v>
+        <v>275166.234158339</v>
       </c>
       <c r="J2" t="n">
         <v>275166.2341583392</v>
@@ -26341,7 +26343,7 @@
         <v>275166.2341583392</v>
       </c>
       <c r="L2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.2341583391</v>
       </c>
       <c r="M2" t="n">
         <v>275166.2341583392</v>
@@ -26350,10 +26352,10 @@
         <v>275166.2341583392</v>
       </c>
       <c r="O2" t="n">
-        <v>275166.2341583393</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="P2" t="n">
-        <v>180746.0634768</v>
+        <v>275166.2341583392</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093387</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647531</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404713</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="C4" t="n">
         <v>29404.49246814042</v>
       </c>
       <c r="D4" t="n">
-        <v>29404.49246814042</v>
+        <v>42741.99673720785</v>
       </c>
       <c r="E4" t="n">
-        <v>29404.49246814042</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="F4" t="n">
-        <v>29404.49246814042</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="G4" t="n">
-        <v>29404.49246814042</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="I4" t="n">
         <v>44919.86535090265</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="J4" t="n">
-        <v>44919.86535090265</v>
-      </c>
       <c r="K4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="M4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="N4" t="n">
         <v>44919.86535090265</v>
@@ -26457,7 +26459,7 @@
         <v>44919.86535090265</v>
       </c>
       <c r="P4" t="n">
-        <v>29404.49246814042</v>
+        <v>44919.86535090263</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26475,16 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520034</v>
       </c>
       <c r="E5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487333</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-88983.00396295208</v>
       </c>
       <c r="C6" t="n">
-        <v>85972.50593016198</v>
+        <v>85972.50593016192</v>
       </c>
       <c r="D6" t="n">
-        <v>85972.50593016201</v>
+        <v>-51657.91445765519</v>
       </c>
       <c r="E6" t="n">
-        <v>119600.1059301619</v>
+        <v>132412.2043816293</v>
       </c>
       <c r="F6" t="n">
-        <v>119600.1059301619</v>
+        <v>159381.1585625632</v>
       </c>
       <c r="G6" t="n">
-        <v>119600.105930162</v>
+        <v>159381.1585625632</v>
       </c>
       <c r="H6" t="n">
-        <v>-14236.25195708618</v>
+        <v>159381.1585625631</v>
       </c>
       <c r="I6" t="n">
         <v>159381.1585625631</v>
       </c>
       <c r="J6" t="n">
-        <v>22786.35775666821</v>
+        <v>22786.35775666825</v>
       </c>
       <c r="K6" t="n">
         <v>159381.1585625632</v>
       </c>
       <c r="L6" t="n">
-        <v>159381.1585625632</v>
+        <v>19381.84769781004</v>
       </c>
       <c r="M6" t="n">
-        <v>159381.1585625632</v>
+        <v>136871.8937885161</v>
       </c>
       <c r="N6" t="n">
         <v>159381.1585625632</v>
       </c>
       <c r="O6" t="n">
-        <v>159381.1585625633</v>
+        <v>159381.1585625632</v>
       </c>
       <c r="P6" t="n">
-        <v>119600.1059301621</v>
+        <v>159381.1585625632</v>
       </c>
     </row>
   </sheetData>
@@ -26793,16 +26795,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.221568342111</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
@@ -34711,16 +34713,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P2" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>338.0047407346338</v>
+        <v>276.3515302285468</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
@@ -34790,7 +34792,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
@@ -34951,10 +34953,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>471.1119924130244</v>
+      </c>
+      <c r="M6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
@@ -35030,13 +35032,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>176.5650354103358</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>403.1397754537126</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>500.9700927793173</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>371.6049244215992</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>500.9700927793178</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>555.7482662821208</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793177</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>500.9700927793172</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>460.0037840019794</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>636.5391732245107</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629454</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>636.5391732245107</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>303.327781496652</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>305.0908579178829</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>585.6063666484137</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>648.289113805458</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37868,16 +37870,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>135.5987266329976</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38099,25 +38101,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700256</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>716116.9038311881</v>
+        <v>713303.9045669754</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029739</v>
+        <v>5301029.811029747</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3772361.273823851</v>
+        <v>3772361.273823854</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8489606.619967759</v>
+        <v>8489606.619967761</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>283.9894733749534</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>19.8984304622902</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>176.1262882516938</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.2622636407258</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>362.7878882758524</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>6.338580986754886</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>262.2537570519885</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1138,7 +1138,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6909096174084334</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>311.839628414043</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>115.7881368226906</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1356,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.607793005909</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>29.06736062834964</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>187.6971066458113</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>29.06736062834964</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>65.27530644466599</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.06736062834895</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>71.02273025732299</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.68843489334793</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>49.02746394088949</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>17.62297837539295</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>10.67714500126746</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>31.99018014062471</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>14.36834313439011</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3565,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>347.6353852893851</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>80.13187460755614</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>239.6441761814972</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>31.42227043795242</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9706214097036</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.9901801406256</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>132.3542293754692</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>856.3536062232714</v>
+        <v>1141.815353557804</v>
       </c>
       <c r="C2" t="n">
-        <v>446.2290155365415</v>
+        <v>1141.815353557804</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>737.3514236508643</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
         <v>41.76508562960205</v>
@@ -4330,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2068.154856770718</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2068.154856770718</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>2068.154856770718</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>2068.154856770718</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1667.511458939671</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>1266.574785887761</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>508.1659581184966</v>
+        <v>497.571341894901</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>497.571341894901</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.3615225997325</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C4" t="n">
-        <v>325.3615225997325</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D4" t="n">
-        <v>325.3615225997325</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E4" t="n">
-        <v>325.3615225997325</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F4" t="n">
-        <v>325.3615225997325</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="W4" t="n">
-        <v>325.3615225997325</v>
+        <v>831.8168045787584</v>
       </c>
       <c r="X4" t="n">
-        <v>325.3615225997325</v>
+        <v>621.4508817093383</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.3615225997325</v>
+        <v>396.715183098103</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.693821706375</v>
+        <v>408.2174980294529</v>
       </c>
       <c r="C5" t="n">
-        <v>860.5692310196448</v>
+        <v>408.2174980294529</v>
       </c>
       <c r="D5" t="n">
-        <v>456.1053011127053</v>
+        <v>408.2174980294529</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>408.2174980294529</v>
       </c>
       <c r="F5" t="n">
         <v>41.76508562960205</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2081.851674422774</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2081.851674422774</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2081.851674422774</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W5" t="n">
-        <v>2081.851674422774</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X5" t="n">
-        <v>2081.851674422774</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.915001370864</v>
+        <v>818.4386776939424</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>508.1659581184962</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784821</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.939116293115</v>
+        <v>1826.592990473609</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.814525606385</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.116637103953</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7764216208492</v>
+        <v>1002.128184303776</v>
       </c>
       <c r="F8" t="n">
-        <v>494.7460095745367</v>
+        <v>581.0977722574635</v>
       </c>
       <c r="G8" t="n">
-        <v>86.01772546736888</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736888</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351232</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441627</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.954097856401</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2367.272688848155</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.38106654733</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.011922964435</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883587</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678879</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368444</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162544</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109403</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368913</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705394</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.740366840562</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009515</v>
+        <v>2637.750843190008</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957605</v>
+        <v>2236.814170138098</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471287</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>541.8239817326676</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>1202.912153651956</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1202.912153651956</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1202.912153651956</v>
+        <v>747.105897386657</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.01772546736888</v>
+        <v>424.3614889801088</v>
       </c>
       <c r="C10" t="n">
-        <v>86.01772546736888</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736888</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736888</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736888</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1002748725794</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948174</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>514.549702874878</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>803.8137593153713</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1084.652541709622</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1344.213152036096</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
         <v>1549.888592285708</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763619</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663554</v>
+        <v>1332.618474634343</v>
       </c>
       <c r="V10" t="n">
-        <v>547.5195041058773</v>
+        <v>1058.732729573865</v>
       </c>
       <c r="W10" t="n">
-        <v>268.4498396147517</v>
+        <v>779.6630650827392</v>
       </c>
       <c r="X10" t="n">
-        <v>86.01772546736888</v>
+        <v>541.3192029424226</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.01772546736888</v>
+        <v>541.3192029424226</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.13812587521</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N12" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5223,25 +5223,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y13" t="n">
         <v>93.2436976906228</v>
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E14" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
         <v>885.5886702674168</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>149.180373244918</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>604.9866295102167</v>
       </c>
       <c r="L15" t="n">
-        <v>874.0699105066985</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M15" t="n">
-        <v>874.0699105066985</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N15" t="n">
-        <v>874.0699105066985</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5466,22 +5466,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>286.056555253256</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>286.056555253256</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.714647364874</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.958701797119</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W19" t="n">
-        <v>786.8890373059935</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X19" t="n">
-        <v>548.5451751656769</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y19" t="n">
-        <v>323.8094765544416</v>
+        <v>122.6046680222891</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5782,22 +5782,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5837,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4236.244377387751</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U22" t="n">
-        <v>3953.446229933875</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>3679.560484873397</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>3400.490820382272</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>3162.146958241955</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3963.271952669106</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3963.271952669106</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4150.971659063151</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4150.971659063151</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4150.971659063151</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4150.971659063151</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4150.971659063151</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4422.636145507842</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>4422.636145507842</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>4422.636145507842</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>4422.636145507842</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.433582065768</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>862.403170019456</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>453.6748859122881</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>142.7663885400061</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6548,19 +6548,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>524.2254458227151</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>524.2254458227151</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>524.2254458227151</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>3594.287766548796</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>3315.218102057671</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>3297.417113799698</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>927.4090418523174</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>756.3156694140339</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>596.8210247369439</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>435.9102096052633</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>271.2790837158546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>104.028692641398</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1339.844446857597</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.844446857597</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>1339.844446857597</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>1115.108748246362</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N36" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.1375248150675</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>760.044152376784</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>600.549507699694</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>439.6386925680135</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>275.0075666786047</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>107.7571756041482</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>1343.572929820347</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>1118.837231209112</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2134.851174492981</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C38" t="n">
-        <v>1724.726583806251</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.262653899312</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674165</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W38" t="n">
-        <v>3346.652425040428</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X38" t="n">
-        <v>2946.009027209381</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y38" t="n">
-        <v>2545.072354157471</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>2615.69568868064</v>
+        <v>735.0499203580262</v>
       </c>
       <c r="M39" t="n">
-        <v>3458.672769375206</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N39" t="n">
-        <v>4332.330861486824</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O39" t="n">
-        <v>4662.18488453114</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1104.024190797049</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C40" t="n">
-        <v>932.9308183587659</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.093855288175</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="W40" t="n">
-        <v>1104.024190797049</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X40" t="n">
-        <v>1104.024190797049</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y40" t="n">
-        <v>1104.024190797049</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>435.8918621719477</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>124.9833647996657</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
         <v>885.5886702674165</v>
@@ -7441,22 +7441,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>4408.238733368956</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="42">
@@ -7502,13 +7502,13 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1228.182536368609</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>692.7936626747511</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>521.7002902364676</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>362.2056455593776</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>201.2948304276971</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>1105.229067680031</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>880.4933690687955</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
         <v>885.5886702674165</v>
@@ -7669,31 +7669,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.903809325241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4526.903809325241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7715,7 +7715,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
         <v>184.7395020346666</v>
@@ -7724,31 +7724,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.0565552532561</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>1198.623017005979</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.623017005979</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N45" t="n">
-        <v>1198.623017005979</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
         <v>107.3262470958333</v>
@@ -7848,10 +7848,10 @@
         <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>413.6491574993933</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7987,22 +7987,22 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>332.4660540393959</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>232.5803491573231</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M5" t="n">
-        <v>553.2940084590249</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>527.2265162238734</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8461,10 +8461,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>519.8012871361426</v>
       </c>
       <c r="N8" t="n">
-        <v>496.0520662103319</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8534,7 +8534,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>723.8803540323523</v>
@@ -8546,16 +8546,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>429.3564034215992</v>
+        <v>506.5304157637051</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>610.0079012849245</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>107.8709312790861</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>384.4175102257753</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O18" t="n">
-        <v>694.2906522245107</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>361.079260496652</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -9977,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,13 +10196,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>491.4496229341746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
@@ -10211,7 +10211,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>706.040592805458</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10907,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>704.403637616307</v>
       </c>
       <c r="M39" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11150,16 +11150,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>348.1042600436691</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>517.4884687476416</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,19 +22549,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>126.2073399533188</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>200.0859887503196</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22612,7 +22612,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -22725,7 +22725,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>100.1526795945206</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.69815987818762</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>54.03221964999693</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.6458382258549</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,19 +22995,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>8.893130557884717</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>399.7283809904616</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>84.79733543869395</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>70.0345725074133</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23193,7 +23193,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300447</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967733</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="17">
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23898,10 +23898,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>94.02640053569773</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23940,10 +23940,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.420980996774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>86.87696797299608</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.799906731775</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>36.46078111520808</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>218.3374451435205</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>137.4342356413304</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>222.4997066824603</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>133.7430375082078</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>32.28731256679799</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>77.76782362276293</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>40.3259897978399</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>54.06597461814515</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>56.01419322081109</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>222.4997066824594</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>103.6061941434442</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>745075.1905229986</v>
+        <v>745075.1905229981</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782785.8396352469</v>
+        <v>782785.839635247</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782785.8396352469</v>
+        <v>782785.839635247</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782785.8396352471</v>
+        <v>782785.8396352469</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782785.839635247</v>
+        <v>782785.8396352471</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782785.8396352469</v>
+        <v>782785.8396352471</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782785.8396352469</v>
+        <v>782785.8396352471</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782785.839635247</v>
+        <v>782785.8396352471</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782785.8396352469</v>
+        <v>782785.8396352471</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782785.839635247</v>
+        <v>782785.8396352471</v>
       </c>
     </row>
     <row r="16">
@@ -26316,25 +26316,25 @@
         <v>180746.0634768</v>
       </c>
       <c r="C2" t="n">
-        <v>180746.0634767999</v>
+        <v>180746.0634768</v>
       </c>
       <c r="D2" t="n">
-        <v>261912.6225448219</v>
+        <v>261912.6225448217</v>
       </c>
       <c r="E2" t="n">
+        <v>275166.2341583392</v>
+      </c>
+      <c r="F2" t="n">
+        <v>275166.2341583393</v>
+      </c>
+      <c r="G2" t="n">
         <v>275166.2341583391</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>275166.2341583392</v>
       </c>
-      <c r="G2" t="n">
-        <v>275166.2341583392</v>
-      </c>
-      <c r="H2" t="n">
-        <v>275166.2341583391</v>
-      </c>
       <c r="I2" t="n">
-        <v>275166.234158339</v>
+        <v>275166.2341583393</v>
       </c>
       <c r="J2" t="n">
         <v>275166.2341583392</v>
@@ -26343,7 +26343,7 @@
         <v>275166.2341583392</v>
       </c>
       <c r="L2" t="n">
-        <v>275166.2341583391</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="M2" t="n">
         <v>275166.2341583392</v>
@@ -26352,7 +26352,7 @@
         <v>275166.2341583392</v>
       </c>
       <c r="O2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.234158339</v>
       </c>
       <c r="P2" t="n">
         <v>275166.2341583392</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100689</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093387</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647531</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404713</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>29404.49246814042</v>
       </c>
       <c r="C4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="D4" t="n">
-        <v>42741.99673720785</v>
+        <v>42741.99673720782</v>
       </c>
       <c r="E4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="F4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="I4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="K4" t="n">
+        <v>44919.86535090265</v>
+      </c>
+      <c r="L4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="L4" t="n">
-        <v>44919.86535090265</v>
-      </c>
       <c r="M4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
         <v>44919.86535090265</v>
@@ -26459,7 +26459,7 @@
         <v>44919.86535090265</v>
       </c>
       <c r="P4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090265</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520034</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26511,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88983.00396295208</v>
+        <v>-89660.5328223461</v>
       </c>
       <c r="C6" t="n">
-        <v>85972.50593016192</v>
+        <v>85294.97707076801</v>
       </c>
       <c r="D6" t="n">
-        <v>-51657.91445765519</v>
+        <v>-51908.25090090144</v>
       </c>
       <c r="E6" t="n">
-        <v>132412.2043816293</v>
+        <v>132231.6237889799</v>
       </c>
       <c r="F6" t="n">
-        <v>159381.1585625632</v>
+        <v>159200.5779699142</v>
       </c>
       <c r="G6" t="n">
-        <v>159381.1585625632</v>
+        <v>159200.577969914</v>
       </c>
       <c r="H6" t="n">
-        <v>159381.1585625631</v>
+        <v>159200.5779699141</v>
       </c>
       <c r="I6" t="n">
-        <v>159381.1585625631</v>
+        <v>159200.5779699142</v>
       </c>
       <c r="J6" t="n">
-        <v>22786.35775666825</v>
+        <v>22605.77716401918</v>
       </c>
       <c r="K6" t="n">
-        <v>159381.1585625632</v>
+        <v>159200.5779699142</v>
       </c>
       <c r="L6" t="n">
-        <v>19381.84769781004</v>
+        <v>19201.26710516142</v>
       </c>
       <c r="M6" t="n">
-        <v>136871.8937885161</v>
+        <v>136691.3131958667</v>
       </c>
       <c r="N6" t="n">
-        <v>159381.1585625632</v>
+        <v>159200.5779699142</v>
       </c>
       <c r="O6" t="n">
-        <v>159381.1585625632</v>
+        <v>159200.577969914</v>
       </c>
       <c r="P6" t="n">
-        <v>159381.1585625632</v>
+        <v>159200.5779699141</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.221568342111</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>460.0037840019794</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>276.3515302285468</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>179.3869557635731</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>471.1119924130244</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35181,10 +35181,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>426.5110626790972</v>
       </c>
       <c r="N8" t="n">
-        <v>403.1397754537126</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>667.7658302215033</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>371.6049244215992</v>
+        <v>448.7789367637051</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>555.7482662821208</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>56.5016924790861</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>328.3029864149263</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O18" t="n">
-        <v>636.5391732245107</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>303.327781496652</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
@@ -36931,7 +36931,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>648.289113805458</v>
       </c>
       <c r="M39" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37870,16 +37870,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>294.9108666499191</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3739449367926</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
